--- a/datasets_cestas/accb_custo_total_itabuna.xlsx
+++ b/datasets_cestas/accb_custo_total_itabuna.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\NotebooksMateriais\previsao_cestas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\NotebooksMateriais\previsao_cestas\datasets_cestas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D032A8-C2CC-45EC-873B-50BEF93C6F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D390AD81-2652-42FE-B8FE-E8AC93310253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4005" yWindow="3015" windowWidth="16200" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="accb_custo_total_itabuna" sheetId="1" r:id="rId1"/>
@@ -299,8 +299,8 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="B215" sqref="B215"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="D212" sqref="D212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2021,61 +2021,101 @@
       </c>
     </row>
     <row r="215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="6"/>
-      <c r="B215" s="6"/>
+      <c r="A215" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B215" s="4">
+        <v>514.58000000000004</v>
+      </c>
     </row>
     <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="6"/>
-      <c r="B216" s="6"/>
+      <c r="A216" s="5"/>
+      <c r="B216" s="4"/>
     </row>
     <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="6"/>
-      <c r="B217" s="6"/>
+      <c r="A217" s="5"/>
+      <c r="B217" s="4"/>
     </row>
     <row r="218" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="6"/>
-      <c r="B218" s="6"/>
+      <c r="A218" s="5"/>
+      <c r="B218" s="4"/>
     </row>
     <row r="219" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="6"/>
-      <c r="B219" s="6"/>
+      <c r="A219" s="5"/>
+      <c r="B219" s="4"/>
     </row>
     <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="6"/>
-      <c r="B220" s="6"/>
+      <c r="A220" s="5"/>
+      <c r="B220" s="4"/>
     </row>
     <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="6"/>
-      <c r="B221" s="6"/>
+      <c r="A221" s="5"/>
+      <c r="B221" s="4"/>
     </row>
     <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="6"/>
-      <c r="B222" s="6"/>
+      <c r="A222" s="5"/>
+      <c r="B222" s="4"/>
     </row>
     <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="6"/>
-      <c r="B223" s="6"/>
+      <c r="A223" s="5"/>
+      <c r="B223" s="4"/>
     </row>
     <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="6"/>
-      <c r="B224" s="6"/>
-    </row>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="A224" s="5"/>
+      <c r="B224" s="4"/>
+    </row>
+    <row r="225" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="5"/>
+      <c r="B225" s="4"/>
+    </row>
+    <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="5"/>
+      <c r="B226" s="4"/>
+    </row>
+    <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="5"/>
+      <c r="B227" s="4"/>
+    </row>
+    <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="5"/>
+      <c r="B228" s="4"/>
+    </row>
+    <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="5"/>
+      <c r="B229" s="4"/>
+    </row>
+    <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="5"/>
+      <c r="B230" s="4"/>
+    </row>
+    <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="5"/>
+      <c r="B231" s="4"/>
+    </row>
+    <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="5"/>
+      <c r="B232" s="4"/>
+    </row>
+    <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="5"/>
+      <c r="B233" s="4"/>
+    </row>
+    <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="5"/>
+      <c r="B234" s="4"/>
+    </row>
+    <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="5"/>
+      <c r="B235" s="4"/>
+    </row>
+    <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="5"/>
+      <c r="B236" s="4"/>
+    </row>
+    <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/datasets_cestas/accb_custo_total_itabuna.xlsx
+++ b/datasets_cestas/accb_custo_total_itabuna.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\NotebooksMateriais\previsao_cestas\datasets_cestas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D390AD81-2652-42FE-B8FE-E8AC93310253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067DE4A6-4382-4592-8FC2-443A6C29705D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="3015" windowWidth="16200" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="accb_custo_total_itabuna" sheetId="1" r:id="rId1"/>
@@ -300,7 +300,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="D212" sqref="D212"/>
+      <selection activeCell="B217" sqref="B217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2029,8 +2029,12 @@
       </c>
     </row>
     <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="5"/>
-      <c r="B216" s="4"/>
+      <c r="A216" s="5">
+        <v>44866</v>
+      </c>
+      <c r="B216" s="4">
+        <v>525.09</v>
+      </c>
     </row>
     <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="5"/>

--- a/datasets_cestas/accb_custo_total_itabuna.xlsx
+++ b/datasets_cestas/accb_custo_total_itabuna.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\NotebooksMateriais\previsao_cestas\datasets_cestas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\datasets_cestas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067DE4A6-4382-4592-8FC2-443A6C29705D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56DA5D8-3633-48AE-9769-6F87E66FE9CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,14 +71,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -300,7 +298,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="B217" sqref="B217"/>
+      <selection activeCell="A218" sqref="A218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1893,228 +1891,232 @@
       </c>
     </row>
     <row r="199" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="3">
+      <c r="A199" s="1">
         <v>44348</v>
       </c>
-      <c r="B199" s="4">
+      <c r="B199" s="2">
         <v>440.37</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="3">
+      <c r="A200" s="1">
         <v>44378</v>
       </c>
-      <c r="B200" s="4">
+      <c r="B200" s="2">
         <v>464.31</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="5">
+      <c r="A201" s="3">
         <v>44409</v>
       </c>
-      <c r="B201" s="4">
+      <c r="B201" s="2">
         <v>457.27</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="5">
+      <c r="A202" s="3">
         <v>44440</v>
       </c>
-      <c r="B202" s="4">
+      <c r="B202" s="2">
         <v>464.52</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="5">
+      <c r="A203" s="3">
         <v>44470</v>
       </c>
-      <c r="B203" s="4">
+      <c r="B203" s="2">
         <v>480.26</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="5">
+      <c r="A204" s="3">
         <v>44501</v>
       </c>
-      <c r="B204" s="4">
+      <c r="B204" s="2">
         <v>481.64</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="5">
+      <c r="A205" s="3">
         <v>44531</v>
       </c>
-      <c r="B205" s="4">
+      <c r="B205" s="2">
         <v>491.79</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="5">
+      <c r="A206" s="3">
         <v>44562</v>
       </c>
-      <c r="B206" s="4">
+      <c r="B206" s="2">
         <v>530.80999999999995</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="5">
+      <c r="A207" s="3">
         <v>44593</v>
       </c>
-      <c r="B207" s="4">
+      <c r="B207" s="2">
         <v>527.61</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="5">
+      <c r="A208" s="3">
         <v>44621</v>
       </c>
-      <c r="B208" s="6">
+      <c r="B208" s="4">
         <v>539.55999999999995</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="5">
+      <c r="A209" s="3">
         <v>44652</v>
       </c>
-      <c r="B209" s="4">
+      <c r="B209" s="2">
         <v>554.1</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="5">
+      <c r="A210" s="3">
         <v>44682</v>
       </c>
-      <c r="B210" s="4">
+      <c r="B210" s="2">
         <v>524.62</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="5">
+      <c r="A211" s="3">
         <v>44713</v>
       </c>
-      <c r="B211" s="4">
+      <c r="B211" s="2">
         <v>529.5</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="5">
+      <c r="A212" s="3">
         <v>44743</v>
       </c>
-      <c r="B212" s="4">
+      <c r="B212" s="2">
         <v>527.86</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="5">
+      <c r="A213" s="3">
         <v>44774</v>
       </c>
-      <c r="B213" s="4">
+      <c r="B213" s="2">
         <v>510.33</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="5">
+      <c r="A214" s="3">
         <v>44805</v>
       </c>
-      <c r="B214" s="4">
+      <c r="B214" s="2">
         <v>511.45</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="5">
+      <c r="A215" s="3">
         <v>44835</v>
       </c>
-      <c r="B215" s="4">
+      <c r="B215" s="2">
         <v>514.58000000000004</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="5">
+      <c r="A216" s="3">
         <v>44866</v>
       </c>
-      <c r="B216" s="4">
+      <c r="B216" s="2">
         <v>525.09</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="5"/>
-      <c r="B217" s="4"/>
+      <c r="A217" s="3">
+        <v>44896</v>
+      </c>
+      <c r="B217" s="2">
+        <v>547.52</v>
+      </c>
     </row>
     <row r="218" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="5"/>
-      <c r="B218" s="4"/>
+      <c r="A218" s="3"/>
+      <c r="B218" s="2"/>
     </row>
     <row r="219" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="5"/>
-      <c r="B219" s="4"/>
+      <c r="A219" s="3"/>
+      <c r="B219" s="2"/>
     </row>
     <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="5"/>
-      <c r="B220" s="4"/>
+      <c r="A220" s="3"/>
+      <c r="B220" s="2"/>
     </row>
     <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="5"/>
-      <c r="B221" s="4"/>
+      <c r="A221" s="3"/>
+      <c r="B221" s="2"/>
     </row>
     <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="5"/>
-      <c r="B222" s="4"/>
+      <c r="A222" s="3"/>
+      <c r="B222" s="2"/>
     </row>
     <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="5"/>
-      <c r="B223" s="4"/>
+      <c r="A223" s="3"/>
+      <c r="B223" s="2"/>
     </row>
     <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="5"/>
-      <c r="B224" s="4"/>
+      <c r="A224" s="3"/>
+      <c r="B224" s="2"/>
     </row>
     <row r="225" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="5"/>
-      <c r="B225" s="4"/>
+      <c r="A225" s="3"/>
+      <c r="B225" s="2"/>
     </row>
     <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="5"/>
-      <c r="B226" s="4"/>
+      <c r="A226" s="3"/>
+      <c r="B226" s="2"/>
     </row>
     <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="5"/>
-      <c r="B227" s="4"/>
+      <c r="A227" s="3"/>
+      <c r="B227" s="2"/>
     </row>
     <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="5"/>
-      <c r="B228" s="4"/>
+      <c r="A228" s="3"/>
+      <c r="B228" s="2"/>
     </row>
     <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="5"/>
-      <c r="B229" s="4"/>
+      <c r="A229" s="3"/>
+      <c r="B229" s="2"/>
     </row>
     <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="5"/>
-      <c r="B230" s="4"/>
+      <c r="A230" s="3"/>
+      <c r="B230" s="2"/>
     </row>
     <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="5"/>
-      <c r="B231" s="4"/>
+      <c r="A231" s="3"/>
+      <c r="B231" s="2"/>
     </row>
     <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="5"/>
-      <c r="B232" s="4"/>
+      <c r="A232" s="3"/>
+      <c r="B232" s="2"/>
     </row>
     <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="5"/>
-      <c r="B233" s="4"/>
+      <c r="A233" s="3"/>
+      <c r="B233" s="2"/>
     </row>
     <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="5"/>
-      <c r="B234" s="4"/>
+      <c r="A234" s="3"/>
+      <c r="B234" s="2"/>
     </row>
     <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="5"/>
-      <c r="B235" s="4"/>
+      <c r="A235" s="3"/>
+      <c r="B235" s="2"/>
     </row>
     <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="5"/>
-      <c r="B236" s="4"/>
+      <c r="A236" s="3"/>
+      <c r="B236" s="2"/>
     </row>
     <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
